--- a/data/long_bre/P16-Urba-long_bre.xlsx
+++ b/data/long_bre/P16-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,35%</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-34,88%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-11,83%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,65</t>
+          <t>-3,07; 7,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -0,22</t>
+          <t>-17,22; -3,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 4,72</t>
+          <t>-5,11; 5,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 49,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,9; -0,01</t>
+          <t>-8,33; 4,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 32,06</t>
+          <t>-14,89; 43,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-54,01; -12,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-25,56; 33,9</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-33,17; 25,65</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 5,36</t>
+          <t>-8,55; 4,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 9,12</t>
+          <t>-4,59; 9,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 2,52</t>
+          <t>-10,58; 2,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 18,55</t>
+          <t>-2,23; 12,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 4,64</t>
+          <t>-13,88; 8,44</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 20,38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; 3,77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 27,78</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32,55%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,33%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 4,87</t>
+          <t>-5,97; 5,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 11,53</t>
+          <t>1,13; 12,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 10,38</t>
+          <t>-2,19; 9,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 64,05</t>
+          <t>-10,38; 5,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 54,46</t>
+          <t>-22,37; 30,38</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 71,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 48,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-28,83; 21,6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 13,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 4,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 3,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 81,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 27,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 21,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>45,61%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-12,9%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,4%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,05%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 2,76</t>
+          <t>1,73; 14,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 3,05</t>
+          <t>-9,43; 4,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 6,19</t>
+          <t>-8,11; 4,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 5,93</t>
+          <t>-21,51; 16,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 12,08</t>
+          <t>8,42; 95,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-38,63; 26,93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-32,11; 25,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-60,34; 129,02</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>-11,4%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-10,57%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,34%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 5,48</t>
+          <t>-14,51; 0,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 14,39</t>
+          <t>-14,55; 1,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 8,29</t>
+          <t>-7,77; 6,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 28,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 78,42</t>
+          <t>-15,18; 18,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 44,4</t>
+          <t>-23,75; 1,02</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-23,84; 3,27</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 12,4</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-26,23; 46,97</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,74</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-11,08</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-47,59%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-38,36%</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-38,39%</t>
+          <t>-7,14%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>39,8%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-12,27%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,89; -0,14</t>
+          <t>-7,96; 5,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 2,28</t>
+          <t>1,37; 15,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 1,25</t>
+          <t>-3,51; 9,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-75,97; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 13,27</t>
+          <t>-15,64; 10,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 11,47</t>
+          <t>-28,09; 23,74</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 83,62</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; 46,96</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-49,94; 59,07</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,26%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 37,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 36,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 22,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,18; 128,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,04; 114,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 48,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-11,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-10,47</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-28,09%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-36,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-41,52%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-35,51%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-35,98%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 4,6</t>
+          <t>-32,77; 1,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 3,53</t>
+          <t>-23,07; 2,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 10,07</t>
+          <t>-17,51; 2,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 25,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-66,97; 20,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 50,27</t>
+          <t>-74,2; 11,78</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-66,22; 11,38</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-67,7; 18,05</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>19,63</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>21,09</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-25,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>47,17%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>49,82%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,89</t>
+          <t>4,71; 35,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -1,35</t>
+          <t>5,32; 36,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,71</t>
+          <t>-5,16; 22,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 38,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -6,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 10,75</t>
+          <t>8,64; 109,69</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>8,76; 110,86</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 51,13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-11,5</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>-26,31%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-37,52%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-4,0%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,07</t>
+          <t>-20,98; 4,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,35</t>
+          <t>-29,74; 2,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,51</t>
+          <t>-13,61; 10,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 6,33</t>
+          <t>-55,05; 24,33</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-68,46; 15,95</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-40,81; 57,34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,4; 45,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 36,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-6,62</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-27,33%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-7,38%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-6,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 7,02</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-12,14; -2,14</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 1,93</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 4,22</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 40,11</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-42,35; -9,06</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 11,62</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-33,7; 23,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 4,26</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 7,1</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 3,39</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 10,57</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 8,28</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 14,41</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 6,18</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 23,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>-7,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 2,74</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 9,76</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 6,55</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 3,93</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-22,92; 12,36</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 49,26</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 31,28</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-28,04; 15,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P16-Urba-long_bre.xlsx
+++ b/data/long_bre/P16-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -653,7 +653,7 @@
         <v>0.02094883309342876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0</v>
+        <v>0.6165935160392044</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-3.281194218131827</v>
@@ -667,7 +667,9 @@
       <c r="J4" s="6" t="n">
         <v>0.00121462263074377</v>
       </c>
-      <c r="K4" s="6" t="inlineStr"/>
+      <c r="K4" s="6" t="n">
+        <v>0.03132442008542052</v>
+      </c>
       <c r="L4" s="6" t="n">
         <v>-0.1491033403909297</v>
       </c>
@@ -688,7 +690,9 @@
       <c r="E5" s="5" t="n">
         <v>-5.569636943343684</v>
       </c>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>-6.840136960693585</v>
+      </c>
       <c r="G5" s="5" t="n">
         <v>-9.296395923226219</v>
       </c>
@@ -701,7 +705,9 @@
       <c r="J5" s="6" t="n">
         <v>-0.2732442376530396</v>
       </c>
-      <c r="K5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-0.2855989107919006</v>
+      </c>
       <c r="L5" s="6" t="n">
         <v>-0.3550649964265091</v>
       </c>
@@ -722,7 +728,9 @@
       <c r="E6" s="5" t="n">
         <v>4.757077830137446</v>
       </c>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>6.529948568500929</v>
+      </c>
       <c r="G6" s="5" t="n">
         <v>3.445867929572124</v>
       </c>
@@ -735,7 +743,9 @@
       <c r="J6" s="6" t="n">
         <v>0.3194548312118434</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="n">
+        <v>0.4036413968135007</v>
+      </c>
       <c r="L6" s="6" t="n">
         <v>0.1950344479563766</v>
       </c>
@@ -744,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -757,7 +767,7 @@
         <v>-3.800301288263697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0</v>
+        <v>2.030197118861415</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>4.996651798395196</v>
@@ -771,7 +781,9 @@
       <c r="J7" s="6" t="n">
         <v>-0.06324371438982253</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
+      <c r="K7" s="6" t="n">
+        <v>0.04162112851784463</v>
+      </c>
       <c r="L7" s="6" t="n">
         <v>0.1049404840719242</v>
       </c>
@@ -792,7 +804,9 @@
       <c r="E8" s="5" t="n">
         <v>-10.59676508771762</v>
       </c>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>-6.516808584215185</v>
+      </c>
       <c r="G8" s="5" t="n">
         <v>-1.734973607158933</v>
       </c>
@@ -805,7 +819,9 @@
       <c r="J8" s="6" t="n">
         <v>-0.1654167767362333</v>
       </c>
-      <c r="K8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="n">
+        <v>-0.1204942402858138</v>
+      </c>
       <c r="L8" s="6" t="n">
         <v>-0.03418926521743827</v>
       </c>
@@ -826,7 +842,9 @@
       <c r="E9" s="5" t="n">
         <v>2.80949444983655</v>
       </c>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>10.98125996356207</v>
+      </c>
       <c r="G9" s="5" t="n">
         <v>12.79118769324517</v>
       </c>
@@ -839,7 +857,9 @@
       <c r="J9" s="6" t="n">
         <v>0.04780151478983766</v>
       </c>
-      <c r="K9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="n">
+        <v>0.2585027844813049</v>
+      </c>
       <c r="L9" s="6" t="n">
         <v>0.2936503370073364</v>
       </c>
@@ -848,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -861,7 +881,7 @@
         <v>3.779352455170268</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0</v>
+        <v>-2.646790634900631</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-1.715457580263396</v>
@@ -875,7 +895,9 @@
       <c r="J10" s="6" t="n">
         <v>0.1667629755445254</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="n">
+        <v>-0.08392427596427098</v>
+      </c>
       <c r="L10" s="6" t="n">
         <v>-0.05646727639696589</v>
       </c>
@@ -896,7 +918,9 @@
       <c r="E11" s="5" t="n">
         <v>-2.569531909424591</v>
       </c>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>-14.86018887422098</v>
+      </c>
       <c r="G11" s="5" t="n">
         <v>-9.833641473893156</v>
       </c>
@@ -909,7 +933,9 @@
       <c r="J11" s="6" t="n">
         <v>-0.09766327387766972</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-0.3638831004194567</v>
+      </c>
       <c r="L11" s="6" t="n">
         <v>-0.2824031900905406</v>
       </c>
@@ -930,7 +956,9 @@
       <c r="E12" s="5" t="n">
         <v>9.432222500708031</v>
       </c>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>5.35876153168245</v>
+      </c>
       <c r="G12" s="5" t="n">
         <v>5.701074240294166</v>
       </c>
@@ -943,7 +971,9 @@
       <c r="J12" s="6" t="n">
         <v>0.5115829785997537</v>
       </c>
-      <c r="K12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>0.212450546842137</v>
+      </c>
       <c r="L12" s="6" t="n">
         <v>0.2256432168739319</v>
       </c>
@@ -956,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -969,7 +999,7 @@
         <v>-1.953265948728997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0</v>
+        <v>2.391160976642495</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3.382782003062945</v>
@@ -983,7 +1013,9 @@
       <c r="J13" s="6" t="n">
         <v>-0.09209564907469994</v>
       </c>
-      <c r="K13" s="6" t="inlineStr"/>
+      <c r="K13" s="6" t="n">
+        <v>0.1354495004084846</v>
+      </c>
       <c r="L13" s="6" t="n">
         <v>0.1491808170506872</v>
       </c>
@@ -1004,7 +1036,9 @@
       <c r="E14" s="5" t="n">
         <v>-8.00784662007759</v>
       </c>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="n">
+        <v>-5.107009666298792</v>
+      </c>
       <c r="G14" s="5" t="n">
         <v>-20.21458066818365</v>
       </c>
@@ -1017,7 +1051,9 @@
       <c r="J14" s="6" t="n">
         <v>-0.3175296034801933</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
+      <c r="K14" s="6" t="n">
+        <v>-0.222874229999874</v>
+      </c>
       <c r="L14" s="6" t="n">
         <v>-0.5864561608084639</v>
       </c>
@@ -1038,7 +1074,9 @@
       <c r="E15" s="5" t="n">
         <v>4.21135085201547</v>
       </c>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="n">
+        <v>9.000688123388137</v>
+      </c>
       <c r="G15" s="5" t="n">
         <v>16.41949016223776</v>
       </c>
@@ -1051,7 +1089,9 @@
       <c r="J15" s="6" t="n">
         <v>0.2541328659654269</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
+      <c r="K15" s="6" t="n">
+        <v>0.6407547915767021</v>
+      </c>
       <c r="L15" s="6" t="n">
         <v>1.284664564050408</v>
       </c>
@@ -1060,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1073,7 +1113,7 @@
         <v>-1.245759290257298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0</v>
+        <v>-10.60477310257509</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.9473980230579326</v>
@@ -1087,7 +1127,9 @@
       <c r="J16" s="6" t="n">
         <v>-0.02195670633336682</v>
       </c>
-      <c r="K16" s="6" t="inlineStr"/>
+      <c r="K16" s="6" t="n">
+        <v>-0.1747653058074615</v>
+      </c>
       <c r="L16" s="6" t="n">
         <v>-0.0184492655053792</v>
       </c>
@@ -1108,7 +1150,9 @@
       <c r="E17" s="5" t="n">
         <v>-8.151001987295734</v>
       </c>
-      <c r="F17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="n">
+        <v>-18.68635919238086</v>
+      </c>
       <c r="G17" s="5" t="n">
         <v>-16.44327366654943</v>
       </c>
@@ -1121,7 +1165,9 @@
       <c r="J17" s="6" t="n">
         <v>-0.1353448876672757</v>
       </c>
-      <c r="K17" s="6" t="inlineStr"/>
+      <c r="K17" s="6" t="n">
+        <v>-0.2855835877543186</v>
+      </c>
       <c r="L17" s="6" t="n">
         <v>-0.2835723272522855</v>
       </c>
@@ -1142,7 +1188,9 @@
       <c r="E18" s="5" t="n">
         <v>5.754570240726696</v>
       </c>
-      <c r="F18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="n">
+        <v>-1.128939603138412</v>
+      </c>
       <c r="G18" s="5" t="n">
         <v>17.00671110698453</v>
       </c>
@@ -1155,7 +1203,9 @@
       <c r="J18" s="6" t="n">
         <v>0.1090606658736062</v>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
+      <c r="K18" s="6" t="n">
+        <v>-0.0173617732130959</v>
+      </c>
       <c r="L18" s="6" t="n">
         <v>0.4075663262679751</v>
       </c>
@@ -1164,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1177,7 +1227,7 @@
         <v>3.199025238986295</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0</v>
+        <v>8.213612125932606</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>-2.43538398000499</v>
@@ -1191,7 +1241,9 @@
       <c r="J19" s="6" t="n">
         <v>0.1450553543474344</v>
       </c>
-      <c r="K19" s="6" t="inlineStr"/>
+      <c r="K19" s="6" t="n">
+        <v>0.3790945589065381</v>
+      </c>
       <c r="L19" s="6" t="n">
         <v>-0.09376688137619558</v>
       </c>
@@ -1212,7 +1264,9 @@
       <c r="E20" s="5" t="n">
         <v>-2.899828378344438</v>
       </c>
-      <c r="F20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="n">
+        <v>0.8570983603803635</v>
+      </c>
       <c r="G20" s="5" t="n">
         <v>-15.2843484820773</v>
       </c>
@@ -1225,7 +1279,9 @@
       <c r="J20" s="6" t="n">
         <v>-0.115145873933996</v>
       </c>
-      <c r="K20" s="6" t="inlineStr"/>
+      <c r="K20" s="6" t="n">
+        <v>0.04112564491733385</v>
+      </c>
       <c r="L20" s="6" t="n">
         <v>-0.4923833317744789</v>
       </c>
@@ -1246,7 +1302,9 @@
       <c r="E21" s="5" t="n">
         <v>9.394257047082624</v>
       </c>
-      <c r="F21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>15.84473702799311</v>
+      </c>
       <c r="G21" s="5" t="n">
         <v>11.42369454761817</v>
       </c>
@@ -1259,7 +1317,9 @@
       <c r="J21" s="6" t="n">
         <v>0.4923261195296128</v>
       </c>
-      <c r="K21" s="6" t="inlineStr"/>
+      <c r="K21" s="6" t="n">
+        <v>0.8785455537963066</v>
+      </c>
       <c r="L21" s="6" t="n">
         <v>0.5919211502581833</v>
       </c>
@@ -1272,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1285,7 +1345,7 @@
         <v>-8.078068550297028</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0</v>
+        <v>-6.946735145768868</v>
       </c>
       <c r="G22" s="5" t="inlineStr"/>
       <c r="H22" s="6" t="n">
@@ -1297,7 +1357,9 @@
       <c r="J22" s="6" t="n">
         <v>-0.3978415772999497</v>
       </c>
-      <c r="K22" s="6" t="inlineStr"/>
+      <c r="K22" s="6" t="n">
+        <v>-0.3098098530803047</v>
+      </c>
       <c r="L22" s="6" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1316,7 +1378,9 @@
       <c r="E23" s="5" t="n">
         <v>-18.92644046447968</v>
       </c>
-      <c r="F23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="n">
+        <v>-25.65116129264029</v>
+      </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="6" t="n">
         <v>-0.7463337057091544</v>
@@ -1327,7 +1391,9 @@
       <c r="J23" s="6" t="n">
         <v>-0.6980489378771142</v>
       </c>
-      <c r="K23" s="6" t="inlineStr"/>
+      <c r="K23" s="6" t="n">
+        <v>-0.7263326592798359</v>
+      </c>
       <c r="L23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1346,7 +1412,9 @@
       <c r="E24" s="5" t="n">
         <v>1.569285502372581</v>
       </c>
-      <c r="F24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="n">
+        <v>7.308078040695041</v>
+      </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="6" t="n">
         <v>0.06108727062679331</v>
@@ -1357,14 +1425,16 @@
       <c r="J24" s="6" t="n">
         <v>0.1116563440683216</v>
       </c>
-      <c r="K24" s="6" t="inlineStr"/>
+      <c r="K24" s="6" t="n">
+        <v>0.6283834733922923</v>
+      </c>
       <c r="L24" s="6" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1377,7 +1447,7 @@
         <v>8.323373445196957</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0</v>
+        <v>21.35289527036577</v>
       </c>
       <c r="G25" s="5" t="inlineStr"/>
       <c r="H25" s="6" t="n">
@@ -1389,7 +1459,9 @@
       <c r="J25" s="6" t="n">
         <v>0.1539629637746928</v>
       </c>
-      <c r="K25" s="6" t="inlineStr"/>
+      <c r="K25" s="6" t="n">
+        <v>0.5136708360749461</v>
+      </c>
       <c r="L25" s="6" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1408,7 +1480,9 @@
       <c r="E26" s="5" t="n">
         <v>-4.649439306437167</v>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="n">
+        <v>2.598909135245624</v>
+      </c>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="6" t="n">
         <v>0.1044487228927239</v>
@@ -1419,7 +1493,9 @@
       <c r="J26" s="6" t="n">
         <v>-0.07466723154777712</v>
       </c>
-      <c r="K26" s="6" t="inlineStr"/>
+      <c r="K26" s="6" t="n">
+        <v>0.06131284290600702</v>
+      </c>
       <c r="L26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1438,7 +1514,9 @@
       <c r="E27" s="5" t="n">
         <v>22.80102518375425</v>
       </c>
-      <c r="F27" s="5" t="inlineStr"/>
+      <c r="F27" s="5" t="n">
+        <v>39.90312384283844</v>
+      </c>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="6" t="n">
         <v>1.241066423812948</v>
@@ -1449,14 +1527,16 @@
       <c r="J27" s="6" t="n">
         <v>0.5191385686709906</v>
       </c>
-      <c r="K27" s="6" t="inlineStr"/>
+      <c r="K27" s="6" t="n">
+        <v>1.52253280880838</v>
+      </c>
       <c r="L27" s="6" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1469,7 +1549,7 @@
         <v>-0.2453048948999337</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0</v>
+        <v>-14.40616012459689</v>
       </c>
       <c r="G28" s="5" t="inlineStr"/>
       <c r="H28" s="6" t="n">
@@ -1481,7 +1561,9 @@
       <c r="J28" s="6" t="n">
         <v>-0.009569370259149262</v>
       </c>
-      <c r="K28" s="6" t="inlineStr"/>
+      <c r="K28" s="6" t="n">
+        <v>-0.400079931261372</v>
+      </c>
       <c r="L28" s="6" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1500,7 +1582,9 @@
       <c r="E29" s="5" t="n">
         <v>-12.72540707397308</v>
       </c>
-      <c r="F29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="n">
+        <v>-37.80096568254378</v>
+      </c>
       <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="6" t="n">
         <v>-0.5701767868286532</v>
@@ -1511,7 +1595,9 @@
       <c r="J29" s="6" t="n">
         <v>-0.3927512851543223</v>
       </c>
-      <c r="K29" s="6" t="inlineStr"/>
+      <c r="K29" s="6" t="n">
+        <v>-0.7301858271101949</v>
+      </c>
       <c r="L29" s="6" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1530,7 +1616,9 @@
       <c r="E30" s="5" t="n">
         <v>11.44218060979825</v>
       </c>
-      <c r="F30" s="5" t="inlineStr"/>
+      <c r="F30" s="5" t="n">
+        <v>2.935516670985477</v>
+      </c>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="6" t="n">
         <v>0.2925471334393354</v>
@@ -1541,7 +1629,9 @@
       <c r="J30" s="6" t="n">
         <v>0.6387909986006003</v>
       </c>
-      <c r="K30" s="6" t="inlineStr"/>
+      <c r="K30" s="6" t="n">
+        <v>0.1209175701671057</v>
+      </c>
       <c r="L30" s="6" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1552,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1565,7 +1655,7 @@
         <v>-1.756315619600582</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>0</v>
+        <v>0.4422499469561303</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>-1.884681519118248</v>
@@ -1579,7 +1669,9 @@
       <c r="J31" s="6" t="n">
         <v>-0.0914405237573214</v>
       </c>
-      <c r="K31" s="6" t="inlineStr"/>
+      <c r="K31" s="6" t="n">
+        <v>0.02302502174543642</v>
+      </c>
       <c r="L31" s="6" t="n">
         <v>-0.08502481986691743</v>
       </c>
@@ -1600,7 +1692,9 @@
       <c r="E32" s="5" t="n">
         <v>-5.572430483005388</v>
       </c>
-      <c r="F32" s="5" t="inlineStr"/>
+      <c r="F32" s="5" t="n">
+        <v>-4.470525734686319</v>
+      </c>
       <c r="G32" s="5" t="n">
         <v>-8.988217985519904</v>
       </c>
@@ -1613,7 +1707,9 @@
       <c r="J32" s="6" t="n">
         <v>-0.2546197453417476</v>
       </c>
-      <c r="K32" s="6" t="inlineStr"/>
+      <c r="K32" s="6" t="n">
+        <v>-0.208027901839381</v>
+      </c>
       <c r="L32" s="6" t="n">
         <v>-0.3365101125363982</v>
       </c>
@@ -1634,7 +1730,9 @@
       <c r="E33" s="5" t="n">
         <v>1.663581318066458</v>
       </c>
-      <c r="F33" s="5" t="inlineStr"/>
+      <c r="F33" s="5" t="n">
+        <v>5.02804189701197</v>
+      </c>
       <c r="G33" s="5" t="n">
         <v>4.004516956448302</v>
       </c>
@@ -1647,7 +1745,9 @@
       <c r="J33" s="6" t="n">
         <v>0.09872306882314275</v>
       </c>
-      <c r="K33" s="6" t="inlineStr"/>
+      <c r="K33" s="6" t="n">
+        <v>0.3093284517722713</v>
+      </c>
       <c r="L33" s="6" t="n">
         <v>0.2242562351773969</v>
       </c>
@@ -1656,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1669,7 +1769,7 @@
         <v>-1.330517301034562</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0</v>
+        <v>-0.7418774634732173</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>3.634726971692614</v>
@@ -1683,7 +1783,9 @@
       <c r="J34" s="6" t="n">
         <v>-0.02293636068905804</v>
       </c>
-      <c r="K34" s="6" t="inlineStr"/>
+      <c r="K34" s="6" t="n">
+        <v>-0.01408845446773748</v>
+      </c>
       <c r="L34" s="6" t="n">
         <v>0.07493093835602473</v>
       </c>
@@ -1704,7 +1806,9 @@
       <c r="E35" s="5" t="n">
         <v>-6.242970993490891</v>
       </c>
-      <c r="F35" s="5" t="inlineStr"/>
+      <c r="F35" s="5" t="n">
+        <v>-6.880821260573362</v>
+      </c>
       <c r="G35" s="5" t="n">
         <v>-3.471904130207677</v>
       </c>
@@ -1717,7 +1821,9 @@
       <c r="J35" s="6" t="n">
         <v>-0.1018772057940035</v>
       </c>
-      <c r="K35" s="6" t="inlineStr"/>
+      <c r="K35" s="6" t="n">
+        <v>-0.1210825740893143</v>
+      </c>
       <c r="L35" s="6" t="n">
         <v>-0.06677914633751154</v>
       </c>
@@ -1738,7 +1844,9 @@
       <c r="E36" s="5" t="n">
         <v>3.300541970722008</v>
       </c>
-      <c r="F36" s="5" t="inlineStr"/>
+      <c r="F36" s="5" t="n">
+        <v>5.803148878049904</v>
+      </c>
       <c r="G36" s="5" t="n">
         <v>10.40410311843054</v>
       </c>
@@ -1751,7 +1859,9 @@
       <c r="J36" s="6" t="n">
         <v>0.05931772817076517</v>
       </c>
-      <c r="K36" s="6" t="inlineStr"/>
+      <c r="K36" s="6" t="n">
+        <v>0.1210645650533963</v>
+      </c>
       <c r="L36" s="6" t="n">
         <v>0.2377427221886241</v>
       </c>
@@ -1760,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1773,7 +1883,7 @@
         <v>3.086832920635166</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>0</v>
+        <v>0.2996275165170925</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>-1.750045452574367</v>
@@ -1787,7 +1897,9 @@
       <c r="J37" s="6" t="n">
         <v>0.135484127500281</v>
       </c>
-      <c r="K37" s="6" t="inlineStr"/>
+      <c r="K37" s="6" t="n">
+        <v>0.0106499785702554</v>
+      </c>
       <c r="L37" s="6" t="n">
         <v>-0.05967544634114399</v>
       </c>
@@ -1808,7 +1920,9 @@
       <c r="E38" s="5" t="n">
         <v>-1.10641848742653</v>
       </c>
-      <c r="F38" s="5" t="inlineStr"/>
+      <c r="F38" s="5" t="n">
+        <v>-6.149614034812924</v>
+      </c>
       <c r="G38" s="5" t="n">
         <v>-8.888564486064602</v>
       </c>
@@ -1821,7 +1935,9 @@
       <c r="J38" s="6" t="n">
         <v>-0.0407379392750838</v>
       </c>
-      <c r="K38" s="6" t="inlineStr"/>
+      <c r="K38" s="6" t="n">
+        <v>-0.1914948025631819</v>
+      </c>
       <c r="L38" s="6" t="n">
         <v>-0.266732992448472</v>
       </c>
@@ -1842,7 +1958,9 @@
       <c r="E39" s="5" t="n">
         <v>6.85850203646041</v>
       </c>
-      <c r="F39" s="5" t="inlineStr"/>
+      <c r="F39" s="5" t="n">
+        <v>6.218127105822616</v>
+      </c>
       <c r="G39" s="5" t="n">
         <v>4.188418305226838</v>
       </c>
@@ -1855,7 +1973,9 @@
       <c r="J39" s="6" t="n">
         <v>0.3318570252110697</v>
       </c>
-      <c r="K39" s="6" t="inlineStr"/>
+      <c r="K39" s="6" t="n">
+        <v>0.2564627073167398</v>
+      </c>
       <c r="L39" s="6" t="n">
         <v>0.1603865512948183</v>
       </c>
